--- a/KD model/NLP4StatRef-SE-BackgroundArticle-Mapping.xlsx
+++ b/KD model/NLP4StatRef-SE-BackgroundArticle-Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\LuapLab\Prestations\Union Européenne\Eurostat\KnowledgeDatabase\Mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trinidad\¤ En cours\¤ Eurostat\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602AC6B7-ED8A-4E36-80E4-85ADAF6C759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AC8D82-1EBE-4F82-BEF3-0905C35D437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CD-Background-Article'!$A$1:$K$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'KD-Background-Article'!$A$1:$N$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'KD-Background-Article-CoreData'!$A$1:$N$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'KD-Background-Article'!$A$1:$N$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'KD-Background-Article-CoreData'!$A$1:$N$27</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="216">
   <si>
     <t>Date</t>
   </si>
@@ -498,13 +498,7 @@
     <t>relations</t>
   </si>
   <si>
-    <t>excel\id ?</t>
-  </si>
-  <si>
     <t>estat:sourceData</t>
-  </si>
-  <si>
-    <t>estat:StatisticsExplainedData</t>
   </si>
   <si>
     <t>@rdf:resource is the URI of :
@@ -558,12 +552,6 @@
   <si>
     <t>Background Article
 Core data</t>
-  </si>
-  <si>
-    <t>estat:StatisticsExplainedData @rdf:about</t>
-  </si>
-  <si>
-    <t>https://nlp4statref/knowledge/resource/statistics-explained-data#SeqNum</t>
   </si>
   <si>
     <r>
@@ -613,9 +601,6 @@
     <t>estat:dataInformation</t>
   </si>
   <si>
-    <t>estat:StatisticalArticle</t>
-  </si>
-  <si>
     <t>@rdf:resource is the URI of the related Background article in the KDB already created.</t>
   </si>
   <si>
@@ -629,10 +614,6 @@
   </si>
   <si>
     <t>http://publications.europa.eu/resource/authority/corporate-body/ESTAT</t>
-  </si>
-  <si>
-    <t>SE Article
-Core data</t>
   </si>
   <si>
     <t>0.3</t>
@@ -774,34 +755,10 @@
     <t>Label, which is part of the URI is the same sequential number as the one of the Background Article in the content database.</t>
   </si>
   <si>
-    <t>2021.07.22 - EP : URI change</t>
-  </si>
-  <si>
     <t>Fixed value</t>
   </si>
   <si>
     <t>https://nlp4statref/knowledge/authority/resource-type#background-article</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lao UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>202.07.2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Lao UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - EP : URI change</t>
-    </r>
   </si>
   <si>
     <t>https://nlp4statref/knowledge/authority/resource-information#eurostat</t>
@@ -843,6 +800,141 @@
   </si>
   <si>
     <t xml:space="preserve">https://nlp4statref/knowledge/authority/resource-type#statistics-explained-data </t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021.07.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - EP : URI change</t>
+    </r>
+  </si>
+  <si>
+    <t>dct:description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021.08.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - EP : new property to differentiate SE and Experimental Statistics</t>
+    </r>
+  </si>
+  <si>
+    <t>Background article</t>
+  </si>
+  <si>
+    <t>estat:StatisticalDataReport</t>
+  </si>
+  <si>
+    <t>estat:estat:StatisticalDataReport @rdf:about</t>
+  </si>
+  <si>
+    <t>https://nlp4statref/knowledge/resource/statistical-data-report#SeqNum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021.08.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - EP : rename class and URI change</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">estat:BackgroundArticle </t>
+  </si>
+  <si>
+    <t>KD Update
+- New property : dct:description
+- Rename StatisticsExplainedData =&gt; StatisticalDataReport
+- Range correction for estat:dataInformation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021.08.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - EP : Range correction =&gt; Range class is estat:BackgroundArticle </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021.08.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lao UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - EP : Rename StatisticsExplainedData =&gt; StatisticalDataReport</t>
+    </r>
+  </si>
+  <si>
+    <t>excel\id</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1371,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1608,6 +1700,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1634,6 +1762,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1672,30 +1809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2093,7 +2206,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.7" x14ac:dyDescent="0.65"/>
@@ -2151,13 +2264,13 @@
         <v>44391</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.4" x14ac:dyDescent="0.65">
@@ -2165,13 +2278,13 @@
         <v>44392</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="137" t="s">
-        <v>185</v>
+      <c r="D5" s="117" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="44.1" x14ac:dyDescent="0.65">
@@ -2179,20 +2292,28 @@
         <v>44399</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="137" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A7" s="80"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="81"/>
+      <c r="D6" s="117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58.8" x14ac:dyDescent="0.65">
+      <c r="A7" s="85">
+        <v>44426</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A8" s="80"/>
@@ -2294,7 +2415,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.7" x14ac:dyDescent="0.65"/>
@@ -2379,13 +2500,13 @@
       <c r="D3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="116">
+      <c r="G3" s="128">
         <v>1</v>
       </c>
       <c r="H3" s="102" t="s">
@@ -2403,21 +2524,21 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D4" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="116"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="128"/>
       <c r="H4" s="102" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="102"/>
       <c r="K4" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="132.30000000000001" x14ac:dyDescent="0.65">
@@ -2428,21 +2549,21 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D5" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="116"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="102" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="102"/>
       <c r="K5" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.65">
@@ -2557,27 +2678,29 @@
     </row>
     <row r="10" spans="1:11" ht="60.9" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="3">
-        <v>44378</v>
+        <v>44426</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="116" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="126" t="s">
+        <v>215</v>
+      </c>
       <c r="I10" s="102"/>
       <c r="J10" s="96"/>
-      <c r="K10" s="138" t="s">
-        <v>191</v>
+      <c r="K10" s="118" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="55.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -2588,17 +2711,17 @@
         <v>19</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="116"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="102" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="102"/>
-      <c r="J11" s="122"/>
+      <c r="J11" s="134"/>
       <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" ht="55.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -2609,17 +2732,17 @@
         <v>19</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="116"/>
+      <c r="G12" s="128"/>
       <c r="H12" s="102" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="102"/>
-      <c r="J12" s="123"/>
+      <c r="J12" s="135"/>
       <c r="K12" s="113"/>
     </row>
     <row r="13" spans="1:11" ht="55.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -2630,21 +2753,21 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
+        <v>183</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="116"/>
+      <c r="G13" s="128"/>
       <c r="H13" s="91" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="102"/>
       <c r="J13" s="9"/>
       <c r="K13" s="113" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="55.75" customHeight="1" x14ac:dyDescent="0.65">
@@ -2655,21 +2778,21 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+        <v>183</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="116"/>
+      <c r="G14" s="128"/>
       <c r="H14" s="91" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="102"/>
       <c r="J14" s="9"/>
       <c r="K14" s="113" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.65">
@@ -2697,7 +2820,7 @@
       </c>
       <c r="I15" s="91"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="139"/>
+      <c r="K15" s="119"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A16" s="3">
@@ -2734,14 +2857,14 @@
         <v>19</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="116" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H17" s="102" t="s">
@@ -2761,12 +2884,12 @@
         <v>19</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
       <c r="F18" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="116"/>
+      <c r="G18" s="128"/>
       <c r="H18" s="102" t="s">
         <v>53</v>
       </c>
@@ -2782,12 +2905,12 @@
         <v>19</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="115" t="s">
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="128"/>
       <c r="H19" s="102" t="s">
         <v>54</v>
       </c>
@@ -2803,10 +2926,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="128"/>
       <c r="H20" s="102" t="s">
         <v>55</v>
       </c>
@@ -2826,10 +2949,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="128"/>
       <c r="H21" s="102" t="s">
         <v>58</v>
       </c>
@@ -2849,14 +2972,14 @@
         <v>19</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="118" t="s">
+      <c r="E22" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="116" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H22" s="102" t="s">
@@ -2876,12 +2999,12 @@
         <v>19</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
       <c r="F23" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="116"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="102" t="s">
         <v>63</v>
       </c>
@@ -2897,12 +3020,12 @@
         <v>19</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="115" t="s">
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="116"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="102" t="s">
         <v>64</v>
       </c>
@@ -2918,10 +3041,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
       <c r="H25" s="102" t="s">
         <v>65</v>
       </c>
@@ -2941,10 +3064,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="102" t="s">
         <v>66</v>
       </c>
@@ -2964,14 +3087,14 @@
         <v>19</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="118" t="s">
+      <c r="E27" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="102"/>
-      <c r="G27" s="116" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="102" t="s">
@@ -2991,12 +3114,12 @@
         <v>19</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
       <c r="F28" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="116"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="102" t="s">
         <v>69</v>
       </c>
@@ -3012,12 +3135,12 @@
         <v>19</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="115" t="s">
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="116"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="102" t="s">
         <v>70</v>
       </c>
@@ -3033,10 +3156,10 @@
         <v>19</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="102" t="s">
         <v>71</v>
       </c>
@@ -3056,10 +3179,10 @@
         <v>19</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="102" t="s">
         <v>72</v>
       </c>
@@ -3079,14 +3202,14 @@
         <v>19</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="117" t="s">
+      <c r="D32" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="118" t="s">
+      <c r="E32" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="116" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H32" s="102" t="s">
@@ -3106,12 +3229,12 @@
         <v>19</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
       <c r="F33" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="102" t="s">
         <v>75</v>
       </c>
@@ -3127,12 +3250,12 @@
         <v>19</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="115" t="s">
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="128"/>
       <c r="H34" s="102" t="s">
         <v>76</v>
       </c>
@@ -3148,10 +3271,10 @@
         <v>19</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="128"/>
       <c r="H35" s="102" t="s">
         <v>77</v>
       </c>
@@ -3171,10 +3294,10 @@
         <v>19</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="128"/>
       <c r="H36" s="102" t="s">
         <v>78</v>
       </c>
@@ -3194,14 +3317,14 @@
         <v>19</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="117" t="s">
+      <c r="D37" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="118" t="s">
+      <c r="E37" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="102"/>
-      <c r="G37" s="116" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H37" s="102" t="s">
@@ -3221,12 +3344,12 @@
         <v>19</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="118"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="130"/>
       <c r="F38" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="116"/>
+      <c r="G38" s="128"/>
       <c r="H38" s="102" t="s">
         <v>81</v>
       </c>
@@ -3242,12 +3365,12 @@
         <v>19</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="115" t="s">
+      <c r="D39" s="129"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="128"/>
       <c r="H39" s="102" t="s">
         <v>82</v>
       </c>
@@ -3263,10 +3386,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="128"/>
       <c r="H40" s="102" t="s">
         <v>83</v>
       </c>
@@ -3286,10 +3409,10 @@
         <v>19</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="128"/>
       <c r="H41" s="102" t="s">
         <v>84</v>
       </c>
@@ -3309,14 +3432,14 @@
         <v>19</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="117" t="s">
+      <c r="D42" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="118" t="s">
+      <c r="E42" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="116" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H42" s="102" t="s">
@@ -3336,12 +3459,12 @@
         <v>19</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="118"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="116"/>
+      <c r="G43" s="128"/>
       <c r="H43" s="102" t="s">
         <v>87</v>
       </c>
@@ -3357,12 +3480,12 @@
         <v>19</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="115" t="s">
+      <c r="D44" s="129"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="116"/>
+      <c r="G44" s="128"/>
       <c r="H44" s="102" t="s">
         <v>88</v>
       </c>
@@ -3378,10 +3501,10 @@
         <v>19</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="128"/>
       <c r="H45" s="102" t="s">
         <v>89</v>
       </c>
@@ -3401,10 +3524,10 @@
         <v>19</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="128"/>
       <c r="H46" s="102" t="s">
         <v>90</v>
       </c>
@@ -3424,14 +3547,14 @@
         <v>19</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="117" t="s">
+      <c r="D47" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="118" t="s">
+      <c r="E47" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="102"/>
-      <c r="G47" s="116" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H47" s="102" t="s">
@@ -3451,12 +3574,12 @@
         <v>19</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="118"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="130"/>
       <c r="F48" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="116"/>
+      <c r="G48" s="128"/>
       <c r="H48" s="102" t="s">
         <v>93</v>
       </c>
@@ -3472,12 +3595,12 @@
         <v>19</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="115" t="s">
+      <c r="D49" s="129"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="116"/>
+      <c r="G49" s="128"/>
       <c r="H49" s="102" t="s">
         <v>94</v>
       </c>
@@ -3493,10 +3616,10 @@
         <v>19</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="116"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="128"/>
       <c r="H50" s="102" t="s">
         <v>95</v>
       </c>
@@ -3516,10 +3639,10 @@
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="128"/>
       <c r="H51" s="102" t="s">
         <v>96</v>
       </c>
@@ -3539,14 +3662,14 @@
         <v>19</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="117" t="s">
+      <c r="D52" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="118" t="s">
+      <c r="E52" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="102"/>
-      <c r="G52" s="116" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="128" t="s">
         <v>50</v>
       </c>
       <c r="H52" s="102" t="s">
@@ -3566,12 +3689,12 @@
         <v>19</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="118"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="116"/>
+      <c r="G53" s="128"/>
       <c r="H53" s="102" t="s">
         <v>99</v>
       </c>
@@ -3587,12 +3710,12 @@
         <v>19</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="115" t="s">
+      <c r="D54" s="129"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="116"/>
+      <c r="G54" s="128"/>
       <c r="H54" s="102" t="s">
         <v>100</v>
       </c>
@@ -3608,10 +3731,10 @@
         <v>19</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="128"/>
       <c r="H55" s="102" t="s">
         <v>101</v>
       </c>
@@ -3631,10 +3754,10 @@
         <v>19</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="116"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="102" t="s">
         <v>102</v>
       </c>
@@ -3656,14 +3779,14 @@
       <c r="C57" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="117" t="s">
+      <c r="D57" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="120" t="s">
+      <c r="E57" s="132" t="s">
         <v>103</v>
       </c>
       <c r="F57" s="12"/>
-      <c r="G57" s="121" t="s">
+      <c r="G57" s="133" t="s">
         <v>50</v>
       </c>
       <c r="H57" s="12" t="s">
@@ -3671,7 +3794,7 @@
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="119" t="s">
+      <c r="K57" s="131" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3683,18 +3806,18 @@
         <v>41</v>
       </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="120"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="132"/>
       <c r="F58" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="121"/>
+      <c r="G58" s="133"/>
       <c r="H58" s="12" t="s">
         <v>105</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="119"/>
+      <c r="K58" s="131"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A59" s="3">
@@ -3704,18 +3827,18 @@
         <v>41</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="120"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="132"/>
       <c r="F59" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="121"/>
+      <c r="G59" s="133"/>
       <c r="H59" s="12" t="s">
         <v>106</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="119"/>
+      <c r="K59" s="131"/>
     </row>
     <row r="60" spans="1:11" ht="191.1" x14ac:dyDescent="0.65">
       <c r="A60" s="3">
@@ -3725,31 +3848,31 @@
         <v>41</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="140" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="141" t="s">
+      <c r="E60" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="140" t="s">
+      <c r="F60" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="142" t="s">
+      <c r="G60" s="122" t="s">
         <v>38</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.65">
@@ -3794,7 +3917,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K61" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="42">
+  <mergeCells count="43">
     <mergeCell ref="G32:G36"/>
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="G27:G31"/>
@@ -3806,6 +3929,7 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G17:G21"/>
     <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="K57:K59"/>
     <mergeCell ref="F54:F56"/>
     <mergeCell ref="D42:D46"/>
@@ -3857,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.7" x14ac:dyDescent="0.65"/>
@@ -4145,7 +4269,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -4158,8 +4282,8 @@
         <v>120</v>
       </c>
       <c r="L10" s="25"/>
-      <c r="M10" s="143" t="s">
-        <v>195</v>
+      <c r="M10" s="123" t="s">
+        <v>189</v>
       </c>
       <c r="N10" s="28"/>
     </row>
@@ -4171,7 +4295,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="30"/>
@@ -4184,8 +4308,8 @@
         <v>120</v>
       </c>
       <c r="L11" s="25"/>
-      <c r="M11" s="143" t="s">
-        <v>196</v>
+      <c r="M11" s="123" t="s">
+        <v>190</v>
       </c>
       <c r="N11" s="28"/>
     </row>
@@ -4214,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D13" s="105" t="s">
         <v>20</v>
@@ -4233,11 +4357,11 @@
         <v>120</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M13" s="27"/>
       <c r="N13" s="51" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O13" s="88"/>
     </row>
@@ -4282,7 +4406,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="105" t="s">
         <v>20</v>
@@ -4305,11 +4429,11 @@
         <v>120</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="90" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O15" s="88"/>
     </row>
@@ -4346,108 +4470,111 @@
       <c r="N16" s="28"/>
       <c r="O16" s="88"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:15" ht="58.8" x14ac:dyDescent="0.65">
       <c r="A17" s="22">
-        <v>44392</v>
+        <v>44425</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="111" t="s">
+      <c r="C17" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="115" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="31"/>
       <c r="G17" s="47"/>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="116" t="s">
         <v>134</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="34" t="s">
-        <v>177</v>
+      <c r="L17" s="125" t="s">
+        <v>206</v>
       </c>
       <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="1:15" ht="29.4" x14ac:dyDescent="0.65">
+      <c r="N17" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A18" s="22">
-        <v>44399</v>
+        <v>44392</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="105" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>25</v>
-      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="31"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>140</v>
+      <c r="I18" s="49" t="s">
+        <v>171</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="108" t="s">
+      <c r="K18" s="110" t="s">
         <v>120</v>
       </c>
       <c r="L18" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" ht="29.4" x14ac:dyDescent="0.65">
+      <c r="A19" s="22">
+        <v>44399</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="O18" s="88"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A19" s="22">
-        <v>44348</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="41"/>
       <c r="D19" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>143</v>
+      <c r="E19" s="102" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="47"/>
       <c r="H19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>145</v>
+      <c r="I19" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="K19" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="53"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
+      <c r="L19" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="90" t="s">
+        <v>193</v>
+      </c>
       <c r="O19" s="88"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.65">
@@ -4462,151 +4589,157 @@
         <v>20</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="47"/>
       <c r="H20" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>139</v>
+      <c r="I20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="K20" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="54"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="88"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="A21" s="22">
+        <v>44348</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="F21" s="31"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="40"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="88"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A22" s="22">
-        <v>44348</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="51"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="88"/>
     </row>
-    <row r="23" spans="1:15" ht="102.9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A23" s="22">
         <v>44348</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="88"/>
+    </row>
+    <row r="24" spans="1:15" ht="102.9" x14ac:dyDescent="0.65">
+      <c r="A24" s="22">
+        <v>44426</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="94" t="s">
+      <c r="J24" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="61"/>
+      <c r="N24" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="88"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="40"/>
       <c r="O24" s="88"/>
     </row>
-    <row r="25" spans="1:15" ht="147" x14ac:dyDescent="0.65">
-      <c r="A25" s="22">
-        <v>44348</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="7"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="51" t="s">
-        <v>154</v>
-      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="88"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:15" ht="147" x14ac:dyDescent="0.65">
       <c r="A26" s="22">
         <v>44348</v>
       </c>
@@ -4614,32 +4747,24 @@
         <v>19</v>
       </c>
       <c r="C26" s="41"/>
-      <c r="D26" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="102" t="s">
-        <v>51</v>
-      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="K26" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="133" t="s">
+      <c r="G26" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="58" t="s">
         <v>151</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="O26" s="88"/>
     </row>
@@ -4651,19 +4776,33 @@
         <v>19</v>
       </c>
       <c r="C27" s="41"/>
-      <c r="D27" s="130"/>
+      <c r="D27" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E27" s="102" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F27" s="31"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="132"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" s="147" t="s">
+        <v>139</v>
+      </c>
       <c r="M27" s="27"/>
-      <c r="N27" s="134"/>
+      <c r="N27" s="148" t="s">
+        <v>149</v>
+      </c>
       <c r="O27" s="88"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.65">
@@ -4674,21 +4813,19 @@
         <v>19</v>
       </c>
       <c r="C28" s="41"/>
-      <c r="D28" s="130" t="s">
-        <v>20</v>
-      </c>
+      <c r="D28" s="145"/>
       <c r="E28" s="102" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F28" s="31"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="132"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="147"/>
       <c r="M28" s="27"/>
-      <c r="N28" s="134"/>
+      <c r="N28" s="149"/>
       <c r="O28" s="88"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.65">
@@ -4699,19 +4836,21 @@
         <v>19</v>
       </c>
       <c r="C29" s="41"/>
-      <c r="D29" s="130"/>
+      <c r="D29" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E29" s="102" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F29" s="31"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="132"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="147"/>
       <c r="M29" s="27"/>
-      <c r="N29" s="134"/>
+      <c r="N29" s="149"/>
       <c r="O29" s="88"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.65">
@@ -4722,21 +4861,19 @@
         <v>19</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="130" t="s">
-        <v>20</v>
-      </c>
+      <c r="D30" s="145"/>
       <c r="E30" s="102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F30" s="31"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="132"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="147"/>
       <c r="M30" s="27"/>
-      <c r="N30" s="134"/>
+      <c r="N30" s="149"/>
       <c r="O30" s="88"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.65">
@@ -4747,19 +4884,21 @@
         <v>19</v>
       </c>
       <c r="C31" s="41"/>
-      <c r="D31" s="130"/>
+      <c r="D31" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E31" s="102" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F31" s="31"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="132"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="147"/>
       <c r="M31" s="27"/>
-      <c r="N31" s="134"/>
+      <c r="N31" s="149"/>
       <c r="O31" s="88"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.65">
@@ -4770,25 +4909,19 @@
         <v>19</v>
       </c>
       <c r="C32" s="41"/>
-      <c r="D32" s="130" t="s">
-        <v>20</v>
-      </c>
+      <c r="D32" s="145"/>
       <c r="E32" s="102" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="31"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="J32" s="124" t="s">
-        <v>159</v>
-      </c>
-      <c r="K32" s="136"/>
-      <c r="L32" s="132"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="147"/>
       <c r="M32" s="27"/>
-      <c r="N32" s="134"/>
+      <c r="N32" s="149"/>
       <c r="O32" s="88"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.65">
@@ -4799,19 +4932,25 @@
         <v>19</v>
       </c>
       <c r="C33" s="41"/>
-      <c r="D33" s="130"/>
+      <c r="D33" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E33" s="102" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F33" s="31"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="132"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="139" t="s">
+        <v>156</v>
+      </c>
+      <c r="J33" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" s="151"/>
+      <c r="L33" s="147"/>
       <c r="M33" s="27"/>
-      <c r="N33" s="134"/>
+      <c r="N33" s="149"/>
       <c r="O33" s="88"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.65">
@@ -4822,21 +4961,19 @@
         <v>19</v>
       </c>
       <c r="C34" s="41"/>
-      <c r="D34" s="130" t="s">
-        <v>20</v>
-      </c>
+      <c r="D34" s="145"/>
       <c r="E34" s="102" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="31"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="132"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="147"/>
       <c r="M34" s="27"/>
-      <c r="N34" s="134"/>
+      <c r="N34" s="149"/>
       <c r="O34" s="88"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.65">
@@ -4847,19 +4984,21 @@
         <v>19</v>
       </c>
       <c r="C35" s="41"/>
-      <c r="D35" s="130"/>
+      <c r="D35" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E35" s="102" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F35" s="31"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="132"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="147"/>
       <c r="M35" s="27"/>
-      <c r="N35" s="134"/>
+      <c r="N35" s="149"/>
       <c r="O35" s="88"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.65">
@@ -4870,21 +5009,19 @@
         <v>19</v>
       </c>
       <c r="C36" s="41"/>
-      <c r="D36" s="130" t="s">
-        <v>20</v>
-      </c>
+      <c r="D36" s="145"/>
       <c r="E36" s="102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="31"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="132"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="147"/>
       <c r="M36" s="27"/>
-      <c r="N36" s="134"/>
+      <c r="N36" s="149"/>
       <c r="O36" s="88"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.65">
@@ -4895,19 +5032,21 @@
         <v>19</v>
       </c>
       <c r="C37" s="41"/>
-      <c r="D37" s="130"/>
+      <c r="D37" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E37" s="102" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F37" s="31"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="132"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="147"/>
       <c r="M37" s="27"/>
-      <c r="N37" s="134"/>
+      <c r="N37" s="149"/>
       <c r="O37" s="88"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.65">
@@ -4918,25 +5057,19 @@
         <v>19</v>
       </c>
       <c r="C38" s="41"/>
-      <c r="D38" s="130" t="s">
-        <v>20</v>
-      </c>
+      <c r="D38" s="145"/>
       <c r="E38" s="102" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F38" s="31"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="127" t="s">
-        <v>161</v>
-      </c>
-      <c r="K38" s="136"/>
-      <c r="L38" s="132"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="147"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="134"/>
+      <c r="N38" s="149"/>
       <c r="O38" s="88"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.65">
@@ -4947,19 +5080,25 @@
         <v>19</v>
       </c>
       <c r="C39" s="41"/>
-      <c r="D39" s="130"/>
+      <c r="D39" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E39" s="102" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F39" s="31"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="132"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="J39" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="K39" s="151"/>
+      <c r="L39" s="147"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="134"/>
+      <c r="N39" s="149"/>
       <c r="O39" s="88"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.65">
@@ -4970,21 +5109,19 @@
         <v>19</v>
       </c>
       <c r="C40" s="41"/>
-      <c r="D40" s="130" t="s">
-        <v>20</v>
-      </c>
+      <c r="D40" s="145"/>
       <c r="E40" s="102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F40" s="31"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="132"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="147"/>
       <c r="M40" s="27"/>
-      <c r="N40" s="134"/>
+      <c r="N40" s="149"/>
       <c r="O40" s="88"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.65">
@@ -4995,167 +5132,165 @@
         <v>19</v>
       </c>
       <c r="C41" s="41"/>
-      <c r="D41" s="130"/>
+      <c r="D41" s="145" t="s">
+        <v>20</v>
+      </c>
       <c r="E41" s="102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F41" s="31"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="132"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="147"/>
       <c r="M41" s="27"/>
-      <c r="N41" s="134"/>
+      <c r="N41" s="149"/>
       <c r="O41" s="88"/>
     </row>
-    <row r="42" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A42" s="22">
         <v>44348</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>104</v>
+        <v>19</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="102" t="s">
+        <v>102</v>
       </c>
       <c r="F42" s="31"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="132"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="147"/>
       <c r="M42" s="27"/>
-      <c r="N42" s="134"/>
+      <c r="N42" s="149"/>
       <c r="O42" s="88"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:15" ht="14.85" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A43" s="22">
         <v>44348</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="87"/>
+      <c r="C43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="F43" s="31"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="132"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="147"/>
       <c r="M43" s="27"/>
-      <c r="N43" s="134"/>
+      <c r="N43" s="149"/>
       <c r="O43" s="88"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
+      <c r="A44" s="22">
+        <v>44348</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="31"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="40"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="149"/>
       <c r="O44" s="88"/>
     </row>
-    <row r="45" spans="1:15" ht="132.30000000000001" x14ac:dyDescent="0.65">
-      <c r="A45" s="22">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="88"/>
+    </row>
+    <row r="46" spans="1:15" ht="132.30000000000001" x14ac:dyDescent="0.65">
+      <c r="A46" s="22">
         <v>44348</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="44" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="108" t="s">
+      <c r="E46" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I45" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="J45" s="27" t="s">
+      <c r="I46" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="J46" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="K45" s="108" t="s">
+      <c r="K46" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L46" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="M45" s="27"/>
-      <c r="N45" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="O45" s="88"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37" t="s">
+      <c r="M46" s="27"/>
+      <c r="N46" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="O46" s="88"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="88"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A47" s="22">
-        <v>44348</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="102"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="31"/>
-      <c r="G47" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="H47" s="103"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="131" t="s">
-        <v>164</v>
-      </c>
+      <c r="G47" s="38"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="88"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.65">
@@ -5169,18 +5304,20 @@
       <c r="D48" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="102" t="s">
-        <v>51</v>
-      </c>
+      <c r="E48" s="102"/>
       <c r="F48" s="31"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="131"/>
+      <c r="G48" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="103"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="146" t="s">
+        <v>162</v>
+      </c>
       <c r="O48" s="88"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.65">
@@ -5195,7 +5332,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="102" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="55"/>
@@ -5205,7 +5342,7 @@
       <c r="K49" s="65"/>
       <c r="L49" s="52"/>
       <c r="M49" s="66"/>
-      <c r="N49" s="131"/>
+      <c r="N49" s="146"/>
       <c r="O49" s="88"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.65">
@@ -5220,7 +5357,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="102" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="55"/>
@@ -5230,7 +5367,7 @@
       <c r="K50" s="65"/>
       <c r="L50" s="52"/>
       <c r="M50" s="66"/>
-      <c r="N50" s="131"/>
+      <c r="N50" s="146"/>
       <c r="O50" s="88"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.65">
@@ -5245,7 +5382,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="102" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="55"/>
@@ -5255,7 +5392,7 @@
       <c r="K51" s="65"/>
       <c r="L51" s="52"/>
       <c r="M51" s="66"/>
-      <c r="N51" s="131"/>
+      <c r="N51" s="146"/>
       <c r="O51" s="88"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.65">
@@ -5270,7 +5407,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="102" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="55"/>
@@ -5280,7 +5417,7 @@
       <c r="K52" s="65"/>
       <c r="L52" s="52"/>
       <c r="M52" s="66"/>
-      <c r="N52" s="131"/>
+      <c r="N52" s="146"/>
       <c r="O52" s="88"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.65">
@@ -5295,7 +5432,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="102" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="55"/>
@@ -5305,7 +5442,7 @@
       <c r="K53" s="65"/>
       <c r="L53" s="52"/>
       <c r="M53" s="66"/>
-      <c r="N53" s="131"/>
+      <c r="N53" s="146"/>
       <c r="O53" s="88"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.65">
@@ -5320,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="102" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="55"/>
@@ -5330,7 +5467,7 @@
       <c r="K54" s="65"/>
       <c r="L54" s="52"/>
       <c r="M54" s="66"/>
-      <c r="N54" s="131"/>
+      <c r="N54" s="146"/>
       <c r="O54" s="88"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.65">
@@ -5345,7 +5482,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="102" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="55"/>
@@ -5355,22 +5492,22 @@
       <c r="K55" s="65"/>
       <c r="L55" s="52"/>
       <c r="M55" s="66"/>
-      <c r="N55" s="131"/>
+      <c r="N55" s="146"/>
       <c r="O55" s="88"/>
     </row>
-    <row r="56" spans="1:15" ht="42.9" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A56" s="22">
         <v>44348</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>104</v>
+      <c r="E56" s="102" t="s">
+        <v>98</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="55"/>
@@ -5380,76 +5517,101 @@
       <c r="K56" s="65"/>
       <c r="L56" s="52"/>
       <c r="M56" s="66"/>
-      <c r="N56" s="131"/>
+      <c r="N56" s="146"/>
       <c r="O56" s="88"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="74"/>
+    <row r="57" spans="1:15" ht="42.9" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A57" s="22">
+        <v>44348</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="31"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="146"/>
       <c r="O57" s="88"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="E59" s="98"/>
+    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="88"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.65">
       <c r="E60" s="98"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="E61" s="99"/>
+      <c r="E61" s="98"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.65">
       <c r="E62" s="99"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="E63" s="98"/>
+      <c r="E63" s="99"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.65">
       <c r="E64" s="98"/>
     </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.65">
+      <c r="E65" s="98"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N57" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:N58" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="N47:N56"/>
-    <mergeCell ref="L26:L43"/>
-    <mergeCell ref="N26:N43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="I26:I31"/>
-    <mergeCell ref="J26:J31"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="J32:J37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G43"/>
-    <mergeCell ref="H26:H43"/>
-    <mergeCell ref="K26:K43"/>
-    <mergeCell ref="I38:I43"/>
-    <mergeCell ref="J38:J43"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="N48:N57"/>
+    <mergeCell ref="L27:L44"/>
+    <mergeCell ref="N27:N44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G44"/>
+    <mergeCell ref="H27:H44"/>
+    <mergeCell ref="K27:K44"/>
+    <mergeCell ref="I39:I44"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L13" r:id="rId1" location="SeqNum" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{E2B1BBAF-20C4-4938-9851-C8A99C12E418}"/>
+    <hyperlink ref="L18" r:id="rId2" xr:uid="{E2B1BBAF-20C4-4938-9851-C8A99C12E418}"/>
     <hyperlink ref="M10" r:id="rId3" xr:uid="{19E18A94-87D5-4D5B-BDAE-E25BAFD16FB2}"/>
     <hyperlink ref="M11" r:id="rId4" xr:uid="{7A223E4A-485B-4DB3-A3D9-AEB128B265A1}"/>
     <hyperlink ref="L15" r:id="rId5" location="background-article" xr:uid="{3FCD5D7F-06AC-4A17-B28C-F71FF1058E6A}"/>
-    <hyperlink ref="L18" r:id="rId6" location="eurostat" xr:uid="{69D23383-4B27-4868-9FFA-5FDF15BADACE}"/>
+    <hyperlink ref="L19" r:id="rId6" location="eurostat" xr:uid="{69D23383-4B27-4868-9FFA-5FDF15BADACE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -5460,7 +5622,7 @@
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B18:B1048576 B1:B9 B12:B16</xm:sqref>
+          <xm:sqref>B19:B1048576 B1:B9 B12:B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5470,10 +5632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.7" x14ac:dyDescent="0.65"/>
@@ -5749,7 +5911,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -5762,8 +5924,8 @@
         <v>120</v>
       </c>
       <c r="L10" s="25"/>
-      <c r="M10" s="143" t="s">
-        <v>195</v>
+      <c r="M10" s="123" t="s">
+        <v>189</v>
       </c>
       <c r="N10" s="28"/>
     </row>
@@ -5775,7 +5937,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="30"/>
@@ -5788,8 +5950,8 @@
         <v>120</v>
       </c>
       <c r="L11" s="25"/>
-      <c r="M11" s="143" t="s">
-        <v>196</v>
+      <c r="M11" s="123" t="s">
+        <v>190</v>
       </c>
       <c r="N11" s="28"/>
     </row>
@@ -5811,14 +5973,16 @@
     </row>
     <row r="13" spans="1:14" ht="73.5" x14ac:dyDescent="0.65">
       <c r="A13" s="22">
-        <v>44399</v>
+        <v>44425</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="144" t="s">
-        <v>166</v>
+      <c r="C13" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>164</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="31"/>
@@ -5826,19 +5990,19 @@
         <v>132</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="I13" s="52"/>
       <c r="J13" s="30"/>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="116" t="s">
         <v>120</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="M13" s="27"/>
       <c r="N13" s="51" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="132.30000000000001" x14ac:dyDescent="0.65">
@@ -5850,7 +6014,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="31"/>
@@ -5870,7 +6034,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="92"/>
       <c r="N14" s="51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="29.4" x14ac:dyDescent="0.65">
@@ -5882,7 +6046,7 @@
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15" s="112" t="s">
         <v>26</v>
@@ -5902,11 +6066,11 @@
         <v>120</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="90" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="29.4" x14ac:dyDescent="0.65">
@@ -5918,7 +6082,7 @@
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E16" s="102" t="s">
         <v>39</v>
@@ -5941,109 +6105,111 @@
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
     </row>
-    <row r="17" spans="1:14" ht="29.4" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:14" ht="58.8" x14ac:dyDescent="0.65">
       <c r="A17" s="22">
-        <v>44392</v>
+        <v>44425</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="44" t="s">
-        <v>166</v>
+      <c r="C17" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="31"/>
       <c r="G17" s="47"/>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="116" t="s">
         <v>134</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="34" t="s">
-        <v>177</v>
+      <c r="L17" s="125" t="s">
+        <v>206</v>
       </c>
       <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
+      <c r="N17" s="28" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="29.4" x14ac:dyDescent="0.65">
       <c r="A18" s="22">
-        <v>44399</v>
+        <v>44392</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="112" t="s">
-        <v>25</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="31"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="114" t="s">
+      <c r="H18" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>140</v>
+      <c r="I18" s="49" t="s">
+        <v>171</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="114" t="s">
+      <c r="K18" s="110" t="s">
         <v>120</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="90" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="44.1" x14ac:dyDescent="0.65">
+        <v>172</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:14" ht="29.4" x14ac:dyDescent="0.65">
       <c r="A19" s="22">
-        <v>44378</v>
+        <v>44399</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>143</v>
+        <v>164</v>
+      </c>
+      <c r="E19" s="112" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="108" t="s">
+      <c r="I19" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="53"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="29.4" x14ac:dyDescent="0.65">
+      <c r="L19" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="44.1" x14ac:dyDescent="0.65">
       <c r="A20" s="22">
         <v>44378</v>
       </c>
@@ -6052,186 +6218,222 @@
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>40</v>
+        <v>164</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="47"/>
       <c r="H20" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>139</v>
+      <c r="I20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="K20" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="54"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="27"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="N20" s="51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="29.4" x14ac:dyDescent="0.65">
+      <c r="A21" s="22">
+        <v>44378</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>40</v>
+      </c>
       <c r="F21" s="31"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="40"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A22" s="22">
-        <v>44378</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="51"/>
-    </row>
-    <row r="23" spans="1:14" ht="58.8" x14ac:dyDescent="0.65">
+      <c r="G22" s="38"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.65">
       <c r="A23" s="22">
         <v>44378</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="51"/>
+    </row>
+    <row r="24" spans="1:14" ht="73.5" x14ac:dyDescent="0.65">
+      <c r="A24" s="22">
+        <v>44426</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="61"/>
+      <c r="N24" s="107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:14" ht="147" x14ac:dyDescent="0.65">
+      <c r="A26" s="22">
+        <v>44378</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="108" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="108" t="s">
+      <c r="I26" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="60" t="s">
+      <c r="L26" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="40"/>
-    </row>
-    <row r="25" spans="1:14" ht="147" x14ac:dyDescent="0.65">
-      <c r="A25" s="22">
-        <v>44378</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="40"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.65">
-      <c r="E30" s="101"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="40"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.65">
       <c r="E31" s="101"/>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.65">
+      <c r="E32" s="101"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N26" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:N27" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <hyperlinks>
-    <hyperlink ref="L13" r:id="rId1" location="SeqNum" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="L17" r:id="rId2" xr:uid="{C9ACC438-7CDF-4D38-8EC5-0830C2BCC307}"/>
-    <hyperlink ref="M10" r:id="rId3" xr:uid="{280469A2-C264-41D2-A511-FB7E7814CE30}"/>
-    <hyperlink ref="M11" r:id="rId4" xr:uid="{8F59A079-44FD-430D-9052-C67FF7E4670C}"/>
-    <hyperlink ref="L15" r:id="rId5" location="statistics-explained-data " xr:uid="{294F951E-058A-480F-8B15-4D7E81B02961}"/>
-    <hyperlink ref="L18" r:id="rId6" location="eurostat" xr:uid="{D736E939-F947-4AAE-B269-DC71B6A414AF}"/>
+    <hyperlink ref="L18" r:id="rId1" xr:uid="{C9ACC438-7CDF-4D38-8EC5-0830C2BCC307}"/>
+    <hyperlink ref="M10" r:id="rId2" xr:uid="{280469A2-C264-41D2-A511-FB7E7814CE30}"/>
+    <hyperlink ref="M11" r:id="rId3" xr:uid="{8F59A079-44FD-430D-9052-C67FF7E4670C}"/>
+    <hyperlink ref="L15" r:id="rId4" location="statistics-explained-data " xr:uid="{294F951E-058A-480F-8B15-4D7E81B02961}"/>
+    <hyperlink ref="L19" r:id="rId5" location="eurostat" xr:uid="{D736E939-F947-4AAE-B269-DC71B6A414AF}"/>
+    <hyperlink ref="L13" r:id="rId6" location="SeqNum" xr:uid="{82118F32-D20A-4FF6-B2B7-3FB8038A2297}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -6259,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A1" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -6267,7 +6469,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A2" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="18">
         <v>44344</v>
@@ -6285,7 +6487,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A5" s="17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
